--- a/powerBI_workspace/Document/Powerbi安装配置guide.xlsx
+++ b/powerBI_workspace/Document/Powerbi安装配置guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqf64\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3356590F-86B0-469A-B1CE-C60CEB821702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC74976-2C97-42CB-A11A-035015813BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{0AE3415C-E040-4DA0-95D4-7E3712729CFE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1.获取powerbi账号和安装powerbi 桌面版</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +63,6 @@
     <t>需要安装组件</t>
   </si>
   <si>
-    <t>1.在电脑上安装mysql和mysql connector，必须保持版本一致。并且安装connector时，安装路径选择mysql的server 的bin目录下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.连接MySQL数据源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,11 +77,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据库：aspen</t>
+    <t>登录方式选择“数据库”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>登录方式选择“数据库”</t>
+    <t>数据库：apdb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用公司笔记本时在系统申请安装mysql时，申请Oracle MySQL installer 8.0.32，安装时选择将所有控件一并安装即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.在个人电脑上安装mysql和mysql connector，必须保持版本一致。并且安装connector时，安装路径选择mysql的server 的bin目录下。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -296,10 +301,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
@@ -311,10 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -498,14 +503,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>75581</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>100591</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -542,13 +547,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>239799</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>157843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -603,13 +608,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>696685</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>332013</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>117498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -663,15 +668,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
+      <xdr:colOff>299358</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>250371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>631556</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>92605</xdr:rowOff>
+      <xdr:colOff>386628</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>54505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -694,7 +699,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="544286" y="18581914"/>
+          <a:off x="299358" y="18543814"/>
           <a:ext cx="7054127" cy="2933777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -708,13 +713,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>674914</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -764,6 +769,70 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157844</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C733F96-8549-360F-F9D1-D01E906EA311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="19975286"/>
+          <a:ext cx="789214" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>apdb</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1070,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D05160-49D3-4577-B823-46B3CFC9E222}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2198,8 +2267,8 @@
       <c r="B66" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
+      <c r="C66" t="s">
+        <v>13</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2216,8 +2285,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2319,6 +2390,7 @@
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2335,7 +2407,6 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2808,10 +2879,8 @@
       <c r="N101" s="5"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15" ht="20.149999999999999" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
-        <v>8</v>
-      </c>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -2827,8 +2896,10 @@
       <c r="N102" s="5"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103" s="4"/>
+    <row r="103" spans="1:15" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -2873,12 +2944,10 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="16"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
@@ -2893,7 +2962,7 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
@@ -2912,7 +2981,7 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
@@ -2931,7 +3000,7 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
@@ -2949,10 +3018,12 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="6"/>
+      <c r="L109" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="16"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
@@ -3109,6 +3180,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3125,7 +3197,6 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3203,10 +3274,8 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M124" s="15"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="6"/>
     </row>
@@ -3222,8 +3291,10 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
+      <c r="L125" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="15"/>
       <c r="N125" s="5"/>
       <c r="O125" s="6"/>
     </row>
@@ -3601,22 +3672,39 @@
       <c r="N147" s="5"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="1:15" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="13"/>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
